--- a/data/unemploymentsicknessandbenefits.xlsx
+++ b/data/unemploymentsicknessandbenefits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh_nicholas/github/oz-unemployment-cost-of-living/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F889D-6854-E142-B912-2898DB70EDA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A5894-A0D2-5B42-AC43-F2192ADCDD32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="460" windowWidth="22280" windowHeight="19220" xr2:uid="{E889F0FB-9FDE-7446-B491-2915C8DD90B0}"/>
   </bookViews>
@@ -25,45 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date of Effect</t>
-  </si>
-  <si>
-    <t>Single UB +SB</t>
-  </si>
-  <si>
-    <t>Married with partner</t>
-  </si>
-  <si>
-    <t>Additional Benefit for</t>
-  </si>
-  <si>
-    <t>RA</t>
   </si>
   <si>
     <t>Over 18</t>
   </si>
   <si>
-    <t>partner</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>Under 18</t>
-  </si>
-  <si>
     <t>no child</t>
   </si>
   <si>
-    <t>5.00 Note AA</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>7.00 Note BB</t>
+    <t>Rate ($ pw)</t>
   </si>
   <si>
-    <t>36.00 Note CC</t>
+    <t>From 1 July 1991 UB &amp; SB became JSA/NSA/SA &amp; SpB</t>
+  </si>
+  <si>
+    <t>244.85 Note M</t>
+  </si>
+  <si>
+    <t>248.50 Note N</t>
+  </si>
+  <si>
+    <t>565.70 Note O</t>
+  </si>
+  <si>
+    <t>565.70 Note P</t>
+  </si>
+  <si>
+    <t>Date of effect</t>
+  </si>
+  <si>
+    <t>21 years</t>
+  </si>
+  <si>
+    <t>O/18</t>
+  </si>
+  <si>
+    <t>Single UB</t>
+  </si>
+  <si>
+    <t>01/05/1984 Note G</t>
   </si>
 </sst>
 </file>
@@ -123,12 +129,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E8F311-886D-3B44-805A-96755C342E35}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,363 +463,1360 @@
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>25473</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>25839</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>26205</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>26354</v>
+      </c>
+      <c r="B5" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>26569</v>
+      </c>
+      <c r="B6" s="3">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>26739</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B10" s="3">
         <v>21.5</v>
       </c>
-      <c r="C4" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>18.75</v>
-      </c>
-      <c r="F4" s="3">
-        <v>18.75</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>26933</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B11" s="3">
         <v>23</v>
       </c>
-      <c r="C5" s="3">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20.25</v>
-      </c>
-      <c r="F5" s="3">
-        <v>20.25</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>27110</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B12" s="3">
         <v>26</v>
       </c>
-      <c r="C6" s="3">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3">
-        <v>22.75</v>
-      </c>
-      <c r="F6" s="3">
-        <v>22.75</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>27241</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B13" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>27334</v>
+      </c>
+      <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="D7" s="3">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3">
-        <v>25.75</v>
-      </c>
-      <c r="F7" s="3">
-        <v>25.75</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>27334</v>
-      </c>
-      <c r="B8" s="3">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3">
-        <v>25.75</v>
-      </c>
-      <c r="F8" s="3">
-        <v>25.75</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>27533</v>
-      </c>
-      <c r="B9" s="3">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3">
-        <v>30</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>27699</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>38.75</v>
-      </c>
-      <c r="D10" s="3">
-        <v>38.75</v>
-      </c>
-      <c r="E10" s="3">
-        <v>32.25</v>
-      </c>
-      <c r="F10" s="3">
-        <v>32.25</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>27883</v>
-      </c>
-      <c r="B11" s="3">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3">
-        <v>41.25</v>
-      </c>
-      <c r="D11" s="3">
-        <v>41.25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>34.25</v>
-      </c>
-      <c r="F11" s="3">
-        <v>34.25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>28065</v>
-      </c>
-      <c r="B12" s="3">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3">
-        <v>43.5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>43.5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>36.25</v>
-      </c>
-      <c r="F12" s="3">
-        <v>36.25</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>28247</v>
-      </c>
-      <c r="B13" s="3">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3">
-        <v>47.1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>47.1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>39.25</v>
-      </c>
-      <c r="F13" s="3">
-        <v>39.25</v>
-      </c>
-      <c r="G13" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>28430</v>
-      </c>
-      <c r="B14" s="3">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3">
-        <v>49.3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>49.3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>41.1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>41.1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>28611</v>
       </c>
       <c r="B15" s="3">
         <v>36</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>27699</v>
+      </c>
+      <c r="B16" s="3">
+        <v>38.75</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>27883</v>
+      </c>
+      <c r="B17" s="3">
+        <v>41.25</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>28065</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>28247</v>
+      </c>
+      <c r="B19" s="3">
+        <v>47.1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>28430</v>
+      </c>
+      <c r="B20" s="3">
+        <v>49.3</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>28611</v>
+      </c>
+      <c r="B21" s="3">
         <v>51.45</v>
       </c>
-      <c r="D15" s="3">
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>29160</v>
+      </c>
+      <c r="B26" s="3">
         <v>51.45</v>
       </c>
-      <c r="E15" s="3">
-        <v>42.9</v>
-      </c>
-      <c r="F15" s="3">
-        <v>42.9</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>29342</v>
+      </c>
+      <c r="B27" s="3">
+        <v>51.45</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>29526</v>
+      </c>
+      <c r="B28" s="3">
+        <v>53.45</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>29713</v>
+      </c>
+      <c r="B29" s="3">
+        <v>53.45</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29895</v>
+      </c>
+      <c r="B30" s="3">
+        <v>58.1</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30077</v>
+      </c>
+      <c r="B31" s="3">
+        <v>58.1</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30256</v>
+      </c>
+      <c r="B32" s="3">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>30437</v>
+      </c>
+      <c r="B33" s="3">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>30621</v>
+      </c>
+      <c r="B34" s="3">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>31352</v>
+      </c>
+      <c r="B37" s="3">
+        <v>91.45</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>31533</v>
+      </c>
+      <c r="B38" s="3">
+        <v>95.4</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>31717</v>
+      </c>
+      <c r="B39" s="3">
+        <v>95.4</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>31761</v>
+      </c>
+      <c r="B40" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>31778</v>
+      </c>
+      <c r="B41" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>31941</v>
+      </c>
+      <c r="B42" s="3">
+        <v>104.75</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>32124</v>
+      </c>
+      <c r="B44" s="3">
+        <v>108.4</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>32307</v>
+      </c>
+      <c r="B45" s="3">
+        <v>112.1</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>32490</v>
+      </c>
+      <c r="B46" s="3">
+        <v>116</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>32672</v>
+      </c>
+      <c r="B47" s="3">
+        <v>120.65</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>32827</v>
+      </c>
+      <c r="B48" s="3">
+        <v>124.75</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>32981</v>
+      </c>
+      <c r="B49" s="3">
+        <v>130</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>33136</v>
+      </c>
+      <c r="B50" s="3">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>33501</v>
+      </c>
+      <c r="B52" s="3">
+        <v>138.85</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>33683</v>
+      </c>
+      <c r="B53" s="3">
+        <v>140.94999999999999</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>33867</v>
+      </c>
+      <c r="B54" s="3">
+        <v>140.94999999999999</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>34048</v>
+      </c>
+      <c r="B55" s="3">
+        <v>141.35</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>34232</v>
+      </c>
+      <c r="B56" s="3">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>34413</v>
+      </c>
+      <c r="B57" s="3">
+        <v>147.05000000000001</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>34597</v>
+      </c>
+      <c r="B58" s="3">
+        <v>148.65</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>34778</v>
+      </c>
+      <c r="B59" s="3">
+        <v>150.75</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>34962</v>
+      </c>
+      <c r="B60" s="3">
+        <v>155.25</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>35144</v>
+      </c>
+      <c r="B61" s="3">
+        <v>158.35</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>35328</v>
+      </c>
+      <c r="B62" s="3">
+        <v>160.1</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>35509</v>
+      </c>
+      <c r="B63" s="3">
+        <v>160.75</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>35693</v>
+      </c>
+      <c r="B64" s="3">
+        <v>160.75</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>35874</v>
+      </c>
+      <c r="B65" s="3">
+        <v>160.75</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>36058</v>
+      </c>
+      <c r="B66" s="3">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>36239</v>
+      </c>
+      <c r="B67" s="3">
+        <v>162.85</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>36423</v>
+      </c>
+      <c r="B68" s="3">
+        <v>163.35</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>36605</v>
+      </c>
+      <c r="B69" s="3">
+        <v>165.8</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>36708</v>
+      </c>
+      <c r="B70" s="3">
+        <v>172.45</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>36789</v>
+      </c>
+      <c r="B71" s="3">
+        <v>175.4</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>36970</v>
+      </c>
+      <c r="B72" s="3">
+        <v>178.9</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>37154</v>
+      </c>
+      <c r="B73" s="3">
+        <v>182.3</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>37335</v>
+      </c>
+      <c r="B74" s="3">
+        <v>184.5</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>37519</v>
+      </c>
+      <c r="B75" s="3">
+        <v>187.45</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>37700</v>
+      </c>
+      <c r="B76" s="3">
+        <v>190.05</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>37884</v>
+      </c>
+      <c r="B77" s="3">
+        <v>192.5</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>38066</v>
+      </c>
+      <c r="B78" s="3">
+        <v>194.6</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>38250</v>
+      </c>
+      <c r="B79" s="3">
+        <v>197.3</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>38431</v>
+      </c>
+      <c r="B80" s="3">
+        <v>199.65</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>38615</v>
+      </c>
+      <c r="B81" s="3">
+        <v>202.25</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>38796</v>
+      </c>
+      <c r="B82" s="3">
+        <v>205.3</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>38980</v>
+      </c>
+      <c r="B83" s="3">
+        <v>210.45</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>39161</v>
+      </c>
+      <c r="B84" s="3">
+        <v>212.15</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>39345</v>
+      </c>
+      <c r="B85" s="3">
+        <v>214.9</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>39527</v>
+      </c>
+      <c r="B86" s="3">
+        <v>218.55</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>39711</v>
+      </c>
+      <c r="B87" s="3">
+        <v>224.65</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>39892</v>
+      </c>
+      <c r="B88" s="3">
+        <v>226.65</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>40076</v>
+      </c>
+      <c r="B89" s="3">
+        <v>228</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>40257</v>
+      </c>
+      <c r="B90" s="3">
+        <v>231.4</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>40441</v>
+      </c>
+      <c r="B91" s="3">
+        <v>234.85</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>40622</v>
+      </c>
+      <c r="B92" s="3">
+        <v>237.45</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>40806</v>
+      </c>
+      <c r="B93" s="3">
+        <v>243.4</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>40988</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>41172</v>
+      </c>
+      <c r="B95" s="3">
+        <v>246.3</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>41353</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>41537</v>
+      </c>
+      <c r="B97" s="3">
+        <v>250.5</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>41718</v>
+      </c>
+      <c r="B98" s="3">
+        <v>255.25</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>41902</v>
+      </c>
+      <c r="B99" s="3">
+        <v>257.8</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>42083</v>
+      </c>
+      <c r="B100" s="3">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>42267</v>
+      </c>
+      <c r="B101" s="3">
+        <v>261.7</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>42449</v>
+      </c>
+      <c r="B102" s="3">
+        <v>263.8</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>42633</v>
+      </c>
+      <c r="B103" s="3">
+        <v>264.35000000000002</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>42814</v>
+      </c>
+      <c r="B104" s="3">
+        <v>267.8</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>42998</v>
+      </c>
+      <c r="B105" s="3">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B106" s="3">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>43363</v>
+      </c>
+      <c r="B107" s="3">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>43544</v>
+      </c>
+      <c r="B108" s="3">
+        <v>277.85000000000002</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>43728</v>
+      </c>
+      <c r="B109" s="3">
+        <v>279.5</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="G112" s="2"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="7:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="G113" s="2"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="7:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="G114" s="2"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="7:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="G115" s="2"/>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="7:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="G116" s="2"/>
+      <c r="H116" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="M29:M31"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" location="AA" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/10 - AA" xr:uid="{957A7040-3DA8-774B-8ACF-E06A5F3AA100}"/>
-    <hyperlink ref="G9" r:id="rId2" location="BB" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/10 - BB" xr:uid="{F1F3D409-FC5F-A945-B29E-B7E2BD27B56D}"/>
-    <hyperlink ref="B10" r:id="rId3" location="CC" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/10 - CC" xr:uid="{484E4A06-5571-9241-B6F1-D80CACECA4E2}"/>
+    <hyperlink ref="B94" r:id="rId1" location="NoteM" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/20 - NoteM" xr:uid="{07AF9818-6CA9-CC42-A4FE-F725FFA6F220}"/>
+    <hyperlink ref="B96" r:id="rId2" location="NoteN" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/20 - NoteN" xr:uid="{15476AAA-9E91-334C-A109-DDEE67DFBB27}"/>
+    <hyperlink ref="B110" r:id="rId3" location="NoteO" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/20 - NoteO" xr:uid="{6A6F4788-A58D-1A4C-8F0D-557C39DDE223}"/>
+    <hyperlink ref="B111" r:id="rId4" location="NoteP" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/20 - NoteP" xr:uid="{7C56B26C-BC2F-4048-8241-4251E52B9555}"/>
+    <hyperlink ref="A35" r:id="rId5" location="G" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/10 - G" xr:uid="{AFB362CE-7F70-6E4D-9F25-212D730A1296}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/unemploymentsicknessandbenefits.xlsx
+++ b/data/unemploymentsicknessandbenefits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh_nicholas/github/oz-unemployment-cost-of-living/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A5894-A0D2-5B42-AC43-F2192ADCDD32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D13A9F-E9A9-B647-8FB0-0175D4677F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="460" windowWidth="22280" windowHeight="19220" xr2:uid="{E889F0FB-9FDE-7446-B491-2915C8DD90B0}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,58 +26,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>Date of Effect</t>
-  </si>
-  <si>
-    <t>Over 18</t>
-  </si>
-  <si>
-    <t>no child</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Rate ($ pw)</t>
-  </si>
-  <si>
-    <t>From 1 July 1991 UB &amp; SB became JSA/NSA/SA &amp; SpB</t>
-  </si>
-  <si>
-    <t>244.85 Note M</t>
-  </si>
-  <si>
-    <t>248.50 Note N</t>
-  </si>
-  <si>
-    <t>565.70 Note O</t>
-  </si>
-  <si>
-    <t>565.70 Note P</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date of effect</t>
   </si>
   <si>
     <t>21 years</t>
   </si>
-  <si>
-    <t>O/18</t>
-  </si>
-  <si>
-    <t>Single UB</t>
-  </si>
-  <si>
-    <t>01/05/1984 Note G</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +69,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,13 +98,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -452,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E8F311-886D-3B44-805A-96755C342E35}">
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,10 +437,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -540,10 +512,12 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2">
+        <v>26739</v>
+      </c>
+      <c r="B7" s="3">
+        <v>21.5</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -556,9 +530,11 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
+      <c r="A8" s="2">
+        <v>26933</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -572,168 +548,164 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
+      <c r="A9" s="2">
+        <v>27110</v>
+      </c>
+      <c r="B9" s="3">
+        <v>26</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>26739</v>
+        <v>27241</v>
       </c>
       <c r="B10" s="3">
-        <v>21.5</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>26933</v>
+        <v>27334</v>
       </c>
       <c r="B11" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>27110</v>
+        <v>27533</v>
       </c>
       <c r="B12" s="3">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>27241</v>
+        <v>27699</v>
       </c>
       <c r="B13" s="3">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>38.75</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>27334</v>
+        <v>27883</v>
       </c>
       <c r="B14" s="3">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>41.25</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>27533</v>
+        <v>28065</v>
       </c>
       <c r="B15" s="3">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+        <v>43.5</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>27699</v>
+        <v>28247</v>
       </c>
       <c r="B16" s="3">
-        <v>38.75</v>
+        <v>47.1</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>27883</v>
+        <v>28430</v>
       </c>
       <c r="B17" s="3">
-        <v>41.25</v>
+        <v>49.3</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>28065</v>
+        <v>28611</v>
       </c>
       <c r="B18" s="3">
-        <v>43.5</v>
+        <v>51.45</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>28247</v>
+        <v>29160</v>
       </c>
       <c r="B19" s="3">
-        <v>47.1</v>
+        <v>51.45</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>28430</v>
+        <v>29342</v>
       </c>
       <c r="B20" s="3">
-        <v>49.3</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
+        <v>51.45</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -741,15 +713,15 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>28611</v>
+        <v>29526</v>
       </c>
       <c r="B21" s="3">
-        <v>51.45</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
+        <v>53.45</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -757,68 +729,69 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
+    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>29713</v>
+      </c>
+      <c r="B22" s="3">
+        <v>53.45</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>29895</v>
+      </c>
+      <c r="B23" s="3">
+        <v>58.1</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>30077</v>
+      </c>
+      <c r="B24" s="3">
+        <v>58.1</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
+      <c r="I24" s="1"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>30256</v>
+      </c>
+      <c r="B25" s="3">
+        <v>64.400000000000006</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>29160</v>
+        <v>30437</v>
       </c>
       <c r="B26" s="3">
-        <v>51.45</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
@@ -828,105 +801,119 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>29342</v>
+        <v>30621</v>
       </c>
       <c r="B27" s="3">
-        <v>51.45</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>29526</v>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>30803</v>
       </c>
       <c r="B28" s="3">
-        <v>53.45</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>29713</v>
+        <v>31352</v>
       </c>
       <c r="B29" s="3">
-        <v>53.45</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+        <v>91.45</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29895</v>
+        <v>31533</v>
       </c>
       <c r="B30" s="3">
-        <v>58.1</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+        <v>95.4</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30077</v>
+        <v>31717</v>
       </c>
       <c r="B31" s="3">
-        <v>58.1</v>
+        <v>95.4</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>30256</v>
+        <v>31761</v>
       </c>
       <c r="B32" s="3">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>99.2</v>
+      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>30437</v>
+        <v>31778</v>
       </c>
       <c r="B33" s="3">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
+        <v>99.2</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -937,887 +924,725 @@
     </row>
     <row r="34" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>30621</v>
+        <v>31941</v>
       </c>
       <c r="B34" s="3">
-        <v>73.599999999999994</v>
+        <v>104.75</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>14</v>
+      <c r="A35" s="2">
+        <v>32124</v>
       </c>
       <c r="B35" s="3">
-        <v>78.599999999999994</v>
+        <v>108.4</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
+      <c r="A36" s="2">
+        <v>32307</v>
+      </c>
+      <c r="B36" s="3">
+        <v>112.1</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>31352</v>
+        <v>32490</v>
       </c>
       <c r="B37" s="3">
-        <v>91.45</v>
+        <v>116</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>31533</v>
+        <v>32672</v>
       </c>
       <c r="B38" s="3">
-        <v>95.4</v>
+        <v>120.65</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>31717</v>
+        <v>32827</v>
       </c>
       <c r="B39" s="3">
-        <v>95.4</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
+        <v>124.75</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>31761</v>
+        <v>32981</v>
       </c>
       <c r="B40" s="3">
-        <v>99.2</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>31778</v>
+        <v>33136</v>
       </c>
       <c r="B41" s="3">
-        <v>99.2</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+        <v>134.30000000000001</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>31941</v>
+        <v>33501</v>
       </c>
       <c r="B42" s="3">
-        <v>104.75</v>
+        <v>138.85</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
+      <c r="A43" s="2">
+        <v>33683</v>
+      </c>
+      <c r="B43" s="3">
+        <v>140.94999999999999</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>32124</v>
+        <v>33867</v>
       </c>
       <c r="B44" s="3">
-        <v>108.4</v>
+        <v>140.94999999999999</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>32307</v>
+        <v>34048</v>
       </c>
       <c r="B45" s="3">
-        <v>112.1</v>
+        <v>141.35</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>32490</v>
+        <v>34232</v>
       </c>
       <c r="B46" s="3">
-        <v>116</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+        <v>143.19999999999999</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>32672</v>
+        <v>34413</v>
       </c>
       <c r="B47" s="3">
-        <v>120.65</v>
+        <v>147.05000000000001</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>32827</v>
+        <v>34597</v>
       </c>
       <c r="B48" s="3">
-        <v>124.75</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+        <v>148.65</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>32981</v>
+        <v>34778</v>
       </c>
       <c r="B49" s="3">
-        <v>130</v>
+        <v>150.75</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>33136</v>
+        <v>34962</v>
       </c>
       <c r="B50" s="3">
-        <v>134.30000000000001</v>
+        <v>155.25</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>35144</v>
+      </c>
+      <c r="B51" s="3">
+        <v>158.35</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>33501</v>
+        <v>35328</v>
       </c>
       <c r="B52" s="3">
-        <v>138.85</v>
+        <v>160.1</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>33683</v>
+        <v>35509</v>
       </c>
       <c r="B53" s="3">
-        <v>140.94999999999999</v>
+        <v>160.75</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>33867</v>
+        <v>35693</v>
       </c>
       <c r="B54" s="3">
-        <v>140.94999999999999</v>
+        <v>160.75</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>34048</v>
+        <v>35874</v>
       </c>
       <c r="B55" s="3">
-        <v>141.35</v>
+        <v>160.75</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>34232</v>
+        <v>36058</v>
       </c>
       <c r="B56" s="3">
-        <v>143.19999999999999</v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>34413</v>
+        <v>36239</v>
       </c>
       <c r="B57" s="3">
-        <v>147.05000000000001</v>
+        <v>162.85</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>34597</v>
+        <v>36423</v>
       </c>
       <c r="B58" s="3">
-        <v>148.65</v>
+        <v>163.35</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>34778</v>
+        <v>36605</v>
       </c>
       <c r="B59" s="3">
-        <v>150.75</v>
+        <v>165.8</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>34962</v>
+        <v>36708</v>
       </c>
       <c r="B60" s="3">
-        <v>155.25</v>
+        <v>172.45</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>35144</v>
+        <v>36789</v>
       </c>
       <c r="B61" s="3">
-        <v>158.35</v>
+        <v>175.4</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>35328</v>
+        <v>36970</v>
       </c>
       <c r="B62" s="3">
-        <v>160.1</v>
+        <v>178.9</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>35509</v>
+        <v>37154</v>
       </c>
       <c r="B63" s="3">
-        <v>160.75</v>
+        <v>182.3</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>35693</v>
+        <v>37335</v>
       </c>
       <c r="B64" s="3">
-        <v>160.75</v>
+        <v>184.5</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>35874</v>
+        <v>37519</v>
       </c>
       <c r="B65" s="3">
-        <v>160.75</v>
+        <v>187.45</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>36058</v>
+        <v>37700</v>
       </c>
       <c r="B66" s="3">
-        <v>161.69999999999999</v>
+        <v>190.05</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>36239</v>
+        <v>37884</v>
       </c>
       <c r="B67" s="3">
-        <v>162.85</v>
+        <v>192.5</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>36423</v>
+        <v>38066</v>
       </c>
       <c r="B68" s="3">
-        <v>163.35</v>
+        <v>194.6</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>36605</v>
+        <v>38250</v>
       </c>
       <c r="B69" s="3">
-        <v>165.8</v>
+        <v>197.3</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>36708</v>
+        <v>38431</v>
       </c>
       <c r="B70" s="3">
-        <v>172.45</v>
+        <v>199.65</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>36789</v>
+        <v>38615</v>
       </c>
       <c r="B71" s="3">
-        <v>175.4</v>
+        <v>202.25</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>36970</v>
+        <v>38796</v>
       </c>
       <c r="B72" s="3">
-        <v>178.9</v>
+        <v>205.3</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>37154</v>
+        <v>38980</v>
       </c>
       <c r="B73" s="3">
-        <v>182.3</v>
+        <v>210.45</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>37335</v>
+        <v>39161</v>
       </c>
       <c r="B74" s="3">
-        <v>184.5</v>
+        <v>212.15</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>37519</v>
+        <v>39345</v>
       </c>
       <c r="B75" s="3">
-        <v>187.45</v>
+        <v>214.9</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>37700</v>
+        <v>39527</v>
       </c>
       <c r="B76" s="3">
-        <v>190.05</v>
+        <v>218.55</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>37884</v>
+        <v>39711</v>
       </c>
       <c r="B77" s="3">
-        <v>192.5</v>
+        <v>224.65</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>38066</v>
+        <v>39892</v>
       </c>
       <c r="B78" s="3">
-        <v>194.6</v>
+        <v>226.65</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>38250</v>
+        <v>40076</v>
       </c>
       <c r="B79" s="3">
-        <v>197.3</v>
+        <v>228</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>38431</v>
+        <v>40257</v>
       </c>
       <c r="B80" s="3">
-        <v>199.65</v>
+        <v>231.4</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>38615</v>
+        <v>40441</v>
       </c>
       <c r="B81" s="3">
-        <v>202.25</v>
+        <v>234.85</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>38796</v>
+        <v>40622</v>
       </c>
       <c r="B82" s="3">
-        <v>205.3</v>
+        <v>237.45</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>38980</v>
+        <v>40806</v>
       </c>
       <c r="B83" s="3">
-        <v>210.45</v>
+        <v>243.4</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>39161</v>
-      </c>
-      <c r="B84" s="3">
-        <v>212.15</v>
+        <v>40988</v>
+      </c>
+      <c r="B84" s="6">
+        <v>244.85</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>39345</v>
+        <v>41172</v>
       </c>
       <c r="B85" s="3">
-        <v>214.9</v>
+        <v>246.3</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>39527</v>
-      </c>
-      <c r="B86" s="3">
-        <v>218.55</v>
+        <v>41353</v>
+      </c>
+      <c r="B86" s="6">
+        <v>248.5</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>39711</v>
+        <v>41537</v>
       </c>
       <c r="B87" s="3">
-        <v>224.65</v>
+        <v>250.5</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>39892</v>
+        <v>41718</v>
       </c>
       <c r="B88" s="3">
-        <v>226.65</v>
+        <v>255.25</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>40076</v>
+        <v>41902</v>
       </c>
       <c r="B89" s="3">
-        <v>228</v>
+        <v>257.8</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="3"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>40257</v>
+        <v>42083</v>
       </c>
       <c r="B90" s="3">
-        <v>231.4</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>40441</v>
+        <v>42267</v>
       </c>
       <c r="B91" s="3">
-        <v>234.85</v>
+        <v>261.7</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>40622</v>
+        <v>42449</v>
       </c>
       <c r="B92" s="3">
-        <v>237.45</v>
+        <v>263.8</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>40806</v>
+        <v>42633</v>
       </c>
       <c r="B93" s="3">
-        <v>243.4</v>
+        <v>264.35000000000002</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>40988</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>6</v>
+        <v>42814</v>
+      </c>
+      <c r="B94" s="3">
+        <v>267.8</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>41172</v>
+        <v>42998</v>
       </c>
       <c r="B95" s="3">
-        <v>246.3</v>
+        <v>269.39999999999998</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>41353</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>7</v>
+        <v>43179</v>
+      </c>
+      <c r="B96" s="3">
+        <v>272.89999999999998</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>41537</v>
+        <v>43363</v>
       </c>
       <c r="B97" s="3">
-        <v>250.5</v>
+        <v>275.10000000000002</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>41718</v>
+        <v>43544</v>
       </c>
       <c r="B98" s="3">
-        <v>255.25</v>
+        <v>277.85000000000002</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>41902</v>
+        <v>43728</v>
       </c>
       <c r="B99" s="3">
-        <v>257.8</v>
+        <v>279.5</v>
       </c>
       <c r="G99" s="2"/>
-      <c r="H99" s="4"/>
+      <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>42083</v>
-      </c>
-      <c r="B100" s="3">
-        <v>259.60000000000002</v>
+        <v>43910</v>
+      </c>
+      <c r="B100" s="8">
+        <v>282.85000000000002</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>42267</v>
-      </c>
-      <c r="B101" s="3">
-        <v>261.7</v>
+        <v>44094</v>
+      </c>
+      <c r="B101" s="8">
+        <v>282.85000000000002</v>
       </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="4"/>
+      <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>42449</v>
-      </c>
-      <c r="B102" s="3">
-        <v>263.8</v>
-      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>42633</v>
-      </c>
-      <c r="B103" s="3">
-        <v>264.35000000000002</v>
-      </c>
       <c r="G103" s="2"/>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>42814</v>
-      </c>
-      <c r="B104" s="3">
-        <v>267.8</v>
-      </c>
       <c r="G104" s="2"/>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>42998</v>
-      </c>
-      <c r="B105" s="3">
-        <v>269.39999999999998</v>
-      </c>
       <c r="G105" s="2"/>
-      <c r="H105" s="3"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>43179</v>
-      </c>
-      <c r="B106" s="3">
-        <v>272.89999999999998</v>
-      </c>
       <c r="G106" s="2"/>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>43363</v>
-      </c>
-      <c r="B107" s="3">
-        <v>275.10000000000002</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>43544</v>
-      </c>
-      <c r="B108" s="3">
-        <v>277.85000000000002</v>
-      </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>43728</v>
-      </c>
-      <c r="B109" s="3">
-        <v>279.5</v>
-      </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>43910</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>44094</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="G112" s="2"/>
-      <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="7:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="G113" s="2"/>
-      <c r="H113" s="3"/>
-    </row>
-    <row r="114" spans="7:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="G114" s="2"/>
-      <c r="H114" s="3"/>
-    </row>
-    <row r="115" spans="7:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="G115" s="2"/>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="7:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="G116" s="2"/>
-      <c r="H116" s="4"/>
+      <c r="H106" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M22:M24"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B94" r:id="rId1" location="NoteM" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/20 - NoteM" xr:uid="{07AF9818-6CA9-CC42-A4FE-F725FFA6F220}"/>
-    <hyperlink ref="B96" r:id="rId2" location="NoteN" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/20 - NoteN" xr:uid="{15476AAA-9E91-334C-A109-DDEE67DFBB27}"/>
-    <hyperlink ref="B110" r:id="rId3" location="NoteO" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/20 - NoteO" xr:uid="{6A6F4788-A58D-1A4C-8F0D-557C39DDE223}"/>
-    <hyperlink ref="B111" r:id="rId4" location="NoteP" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/20 - NoteP" xr:uid="{7C56B26C-BC2F-4048-8241-4251E52B9555}"/>
-    <hyperlink ref="A35" r:id="rId5" location="G" display="https://guides.dss.gov.au/guide-social-security-law/5/2/1/10 - G" xr:uid="{AFB362CE-7F70-6E4D-9F25-212D730A1296}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>